--- a/plots/loss_multipath.xlsx
+++ b/plots/loss_multipath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3C41A8-9B8F-2841-A2A5-EDB0976822D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F496552-7E12-8144-BBE0-9348AF5793B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E853FEBA-E3B4-D54F-974B-88E2C02FEFEF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Seconds</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -2628,10 +2634,10 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2960,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8749AADD-AD0F-0540-A11A-F11242974DED}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3148,7 +3154,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>155.88499999999999</v>
       </c>
@@ -3159,7 +3165,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>165.92400000000001</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>175.96100000000001</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>186</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>196.04</v>
       </c>
@@ -3203,7 +3209,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>206.078</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>216.11799999999999</v>
       </c>
@@ -3225,7 +3231,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>226.15299999999999</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>236.19399999999999</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>246.22800000000001</v>
       </c>
@@ -3258,7 +3264,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>256.26799999999997</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>266.303</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>276.33999999999997</v>
       </c>
@@ -3290,8 +3296,14 @@
       <c r="C29">
         <v>8.7319999999999993</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>8.1489752679794893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>286.37799999999999</v>
       </c>
@@ -3301,8 +3313,14 @@
       <c r="C30">
         <v>8.7319999999999993</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0.66334318797397795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>296.411</v>
       </c>
@@ -3313,7 +3331,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>306.44799999999998</v>
       </c>

--- a/plots/loss_multipath.xlsx
+++ b/plots/loss_multipath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F496552-7E12-8144-BBE0-9348AF5793B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA02E4C-A71A-B44F-B4D5-931A2206C8F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E853FEBA-E3B4-D54F-974B-88E2C02FEFEF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{E853FEBA-E3B4-D54F-974B-88E2C02FEFEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{7D2BC81C-80BC-0F42-A114-A3EAC927B890}" name="loss_multipath_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out/loss_multipath_out.csv" thousands="'" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="loss_multipath_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out/loss_multipath_out.csv" thousands="'" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -131,7 +131,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -144,12 +144,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Packt</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Loss 3-hop-path</a:t>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>Loss 3-hop-path</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -167,7 +163,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2008,7 +2004,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2040,12 +2036,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2666,7 +2657,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="loss_multipath_out" connectionId="1" xr16:uid="{5A63EFA1-51E5-7F45-B8B1-744BB09121C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="loss_multipath_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2969,7 +2960,7 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/loss_multipath.xlsx
+++ b/plots/loss_multipath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA02E4C-A71A-B44F-B4D5-931A2206C8F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE585BB-A7CF-FA47-953E-C3D4ACC934B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{E853FEBA-E3B4-D54F-974B-88E2C02FEFEF}"/>
   </bookViews>
@@ -49,13 +49,13 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
     <t>std</t>
+  </si>
+  <si>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1773,7 +1773,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1786,7 +1786,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -1805,7 +1805,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1892,7 +1892,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1905,7 +1905,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>%</a:t>
                 </a:r>
               </a:p>
@@ -1924,7 +1924,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2960,7 +2960,7 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3288,7 +3288,7 @@
         <v>8.7319999999999993</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>8.1489752679794893</v>
@@ -3305,7 +3305,7 @@
         <v>8.7319999999999993</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>0.66334318797397795</v>
